--- a/result/all_result.xlsx
+++ b/result/all_result.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haibinzhao/Desktop/TECO/11_Split_Manufacturing one mask/PythonCode/result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E769255A-6717-EB40-92A2-52E0A746C23B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E082152-A7A8-5D40-BDD3-A88B5C3CE924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35840" yWindow="2700" windowWidth="33600" windowHeight="20500" xr2:uid="{FD5D705E-786A-EF44-8161-2F4ED230A322}"/>
+    <workbookView xWindow="35840" yWindow="-15500" windowWidth="21600" windowHeight="37900" activeTab="1" xr2:uid="{FD5D705E-786A-EF44-8161-2F4ED230A322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="91">
   <si>
     <t xml:space="preserve">acuteinflammation        </t>
   </si>
@@ -159,6 +160,156 @@
   </si>
   <si>
     <t>train loss</t>
+  </si>
+  <si>
+    <t>\multirow{2}{*}{\textbf{Dataset}}</t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>\multirow{2}{*}{\textbf{$\#$input}}</t>
+  </si>
+  <si>
+    <t>\multirow{2}{*}{\textbf{$\#$output}}</t>
+  </si>
+  <si>
+    <t>\multirow{2}{*}{\textbf{$\#$data}}</t>
+  </si>
+  <si>
+    <t>\multirow{2}{*}{\textbf{Topology}}</t>
+  </si>
+  <si>
+    <t>\textbf{Accuracy}</t>
+  </si>
+  <si>
+    <t>\textbf{Random}</t>
+  </si>
+  <si>
+    <t>\\</t>
+  </si>
+  <si>
+    <t>\hline</t>
+  </si>
+  <si>
+    <t>\textbf{(individual)}</t>
+  </si>
+  <si>
+    <t>\textbf{(common)}</t>
+  </si>
+  <si>
+    <t>\textbf{guess}</t>
+  </si>
+  <si>
+    <t>Acute Nephritis</t>
+  </si>
+  <si>
+    <t>Balance Scale</t>
+  </si>
+  <si>
+    <t>Blood</t>
+  </si>
+  <si>
+    <t>Breast Cancer</t>
+  </si>
+  <si>
+    <t>Breast Cancer Wisconsin</t>
+  </si>
+  <si>
+    <t>Breast Tissue</t>
+  </si>
+  <si>
+    <t>Ecoli</t>
+  </si>
+  <si>
+    <t>Energy ($y_1$)</t>
+  </si>
+  <si>
+    <t>Energy ($y_2$)</t>
+  </si>
+  <si>
+    <t>Fertility</t>
+  </si>
+  <si>
+    <t>Glass Identification</t>
+  </si>
+  <si>
+    <t>Haberman's Survival</t>
+  </si>
+  <si>
+    <t>Hayes-Roth</t>
+  </si>
+  <si>
+    <t>ILPD</t>
+  </si>
+  <si>
+    <t>Iris</t>
+  </si>
+  <si>
+    <t>Mammographic Mass</t>
+  </si>
+  <si>
+    <t>Monks-1</t>
+  </si>
+  <si>
+    <t>Monks-2</t>
+  </si>
+  <si>
+    <t>Monks-3</t>
+  </si>
+  <si>
+    <t>Pima Indians Diabetes</t>
+  </si>
+  <si>
+    <t>Pittsburgh Bridges MATERIAL</t>
+  </si>
+  <si>
+    <t>Pittsburgh Bridges SPAN</t>
+  </si>
+  <si>
+    <t>Pittsburgh Bridges T-OR-D</t>
+  </si>
+  <si>
+    <t>Pittsburgh Bridges TYPE</t>
+  </si>
+  <si>
+    <t>Seeds</t>
+  </si>
+  <si>
+    <t>Teaching Assistant Evaluation</t>
+  </si>
+  <si>
+    <t>Tic-Tac-Toe Endgame</t>
+  </si>
+  <si>
+    <t>Vertebral Column (2 cl.)</t>
+  </si>
+  <si>
+    <t>Vertebral Column (3 cl.)</t>
+  </si>
+  <si>
+    <t>\textbf{Summary$^{*}$}</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>\textbf{1.000$^{*}$}</t>
+  </si>
+  <si>
+    <t>\textbf{0.726$^{*}$}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acute Inflammation       </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &amp;</t>
+  </si>
+  <si>
+    <t>9-3-8</t>
+  </si>
+  <si>
+    <t>\textbf{0.715$^{*}$}   &amp;</t>
   </si>
 </sst>
 </file>
@@ -168,10 +319,24 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -246,10 +411,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -279,8 +445,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -595,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37EE270A-552A-474A-979C-B09357D97A88}">
   <dimension ref="A1:V36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA27" sqref="AA27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2727,461 +2897,2329 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB36284-073C-1341-A8C8-2525ED037192}">
-  <dimension ref="A1:D32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8C9DE0D-B218-4E43-9C1E-586418B7C76B}">
+  <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="92" workbookViewId="0">
+      <selection activeCell="U70" sqref="U70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3">
+        <v>120</v>
+      </c>
+      <c r="H3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="J3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="L3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" s="6">
+        <v>0.38133</v>
+      </c>
+      <c r="N3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="15">
+        <v>0.32</v>
+      </c>
+      <c r="P3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>50</v>
+      </c>
+      <c r="T3">
+        <f>M3/K3</f>
+        <v>0.42182522123893806</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4">
+        <v>120</v>
+      </c>
+      <c r="H4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="J4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0.92532999999999999</v>
+      </c>
+      <c r="L4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0.85467000000000004</v>
+      </c>
+      <c r="N4" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="15">
+        <v>0.64</v>
+      </c>
+      <c r="P4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>50</v>
+      </c>
+      <c r="T4">
+        <f t="shared" ref="T4:T32" si="0">M4/K4</f>
+        <v>0.9236380534512012</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5">
+        <v>625</v>
+      </c>
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="J5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0.67090000000000005</v>
+      </c>
+      <c r="L5" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0.18889</v>
+      </c>
+      <c r="N5" t="s">
+        <v>42</v>
+      </c>
+      <c r="O5" s="15">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="P5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>50</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="0"/>
+        <v>0.28154717543598151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6">
+        <v>748</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="J6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0.74666999999999994</v>
+      </c>
+      <c r="L6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M6" s="6">
+        <v>0.74443999999999999</v>
+      </c>
+      <c r="N6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O6" s="15">
+        <v>0.747</v>
+      </c>
+      <c r="P6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>50</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="0"/>
+        <v>0.997013406190151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7">
+        <v>286</v>
+      </c>
+      <c r="H7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0.72414000000000001</v>
+      </c>
+      <c r="L7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" s="6">
+        <v>0.72011000000000003</v>
+      </c>
+      <c r="N7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O7" s="15">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="P7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>50</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="0"/>
+        <v>0.9944347778053968</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8">
+        <v>699</v>
+      </c>
+      <c r="H8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0.95523999999999998</v>
+      </c>
+      <c r="L8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M8" s="6">
+        <v>0.73856999999999995</v>
+      </c>
+      <c r="N8" t="s">
+        <v>42</v>
+      </c>
+      <c r="O8" s="15">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="P8" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>50</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="0"/>
+        <v>0.7731774213810142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9">
+        <v>106</v>
+      </c>
+      <c r="H9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0.40909000000000001</v>
+      </c>
+      <c r="L9" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9" s="6">
+        <v>0.18182000000000001</v>
+      </c>
+      <c r="N9" t="s">
+        <v>42</v>
+      </c>
+      <c r="O9" s="15">
+        <v>0.182</v>
+      </c>
+      <c r="P9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>50</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="0"/>
+        <v>0.44444987655528123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10">
+        <v>336</v>
+      </c>
+      <c r="H10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="J10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0.59216000000000002</v>
+      </c>
+      <c r="L10" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" s="6">
+        <v>0.44069000000000003</v>
+      </c>
+      <c r="N10" t="s">
+        <v>42</v>
+      </c>
+      <c r="O10" s="15">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="P10" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>50</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="0"/>
+        <v>0.74420764658200489</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11">
+        <v>768</v>
+      </c>
+      <c r="H11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="J11" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0.81623000000000001</v>
+      </c>
+      <c r="L11" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11" s="6">
+        <v>0.54783999999999999</v>
+      </c>
+      <c r="N11" t="s">
+        <v>42</v>
+      </c>
+      <c r="O11" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P11" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>50</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="0"/>
+        <v>0.67118336743319895</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12">
+        <v>768</v>
+      </c>
+      <c r="H12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="J12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0.76126000000000005</v>
+      </c>
+      <c r="L12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M12" s="6">
+        <v>0.58442000000000005</v>
+      </c>
+      <c r="N12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O12" s="15">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="P12" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>50</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="0"/>
+        <v>0.76770091690092745</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13">
+        <v>100</v>
+      </c>
+      <c r="H13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="J13" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0.85714000000000001</v>
+      </c>
+      <c r="L13" t="s">
+        <v>42</v>
+      </c>
+      <c r="M13" s="6">
+        <v>0.81269999999999998</v>
+      </c>
+      <c r="N13" t="s">
+        <v>42</v>
+      </c>
+      <c r="O13" s="15">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="P13" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>50</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="0"/>
+        <v>0.948153160510535</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+      <c r="F14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14">
+        <v>214</v>
+      </c>
+      <c r="H14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="J14" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14" s="5">
+        <v>0.43875999999999998</v>
+      </c>
+      <c r="L14" t="s">
+        <v>42</v>
+      </c>
+      <c r="M14" s="6">
+        <v>0.28682000000000002</v>
+      </c>
+      <c r="N14" t="s">
+        <v>42</v>
+      </c>
+      <c r="O14" s="15">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="P14" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>50</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="0"/>
+        <v>0.6537058984410612</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15">
+        <v>306</v>
+      </c>
+      <c r="H15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="J15" t="s">
+        <v>42</v>
+      </c>
+      <c r="K15" s="5">
+        <v>0.78817000000000004</v>
+      </c>
+      <c r="L15" t="s">
+        <v>42</v>
+      </c>
+      <c r="M15" s="6">
+        <v>0.78332999999999997</v>
+      </c>
+      <c r="N15" t="s">
+        <v>42</v>
+      </c>
+      <c r="O15" s="15">
+        <v>0.79</v>
+      </c>
+      <c r="P15" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>50</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="0"/>
+        <v>0.99385919281373303</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16">
+        <v>132</v>
+      </c>
+      <c r="H16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="J16" t="s">
+        <v>42</v>
+      </c>
+      <c r="K16" s="5">
+        <v>0.34166999999999997</v>
+      </c>
+      <c r="L16" t="s">
+        <v>42</v>
+      </c>
+      <c r="M16" s="6">
+        <v>0.35104000000000002</v>
+      </c>
+      <c r="N16" t="s">
+        <v>42</v>
+      </c>
+      <c r="O16" s="15">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="P16" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>50</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="0"/>
+        <v>1.027424122691486</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17">
+        <v>583</v>
+      </c>
+      <c r="H17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="J17" t="s">
+        <v>42</v>
+      </c>
+      <c r="K17" s="5">
+        <v>0.68376000000000003</v>
+      </c>
+      <c r="L17" t="s">
+        <v>42</v>
+      </c>
+      <c r="M17" s="6">
+        <v>0.68347999999999998</v>
+      </c>
+      <c r="N17" t="s">
+        <v>42</v>
+      </c>
+      <c r="O17" s="15">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="P17" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>50</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="0"/>
+        <v>0.9995904995904995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18">
+        <v>150</v>
+      </c>
+      <c r="H18" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="J18" t="s">
+        <v>42</v>
+      </c>
+      <c r="K18" s="5">
+        <v>0.70108000000000004</v>
+      </c>
+      <c r="L18" t="s">
+        <v>42</v>
+      </c>
+      <c r="M18" s="6">
+        <v>0.41182999999999997</v>
+      </c>
+      <c r="N18" t="s">
+        <v>42</v>
+      </c>
+      <c r="O18" s="15">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="P18" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>50</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="0"/>
+        <v>0.58742226279454546</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19">
+        <v>961</v>
+      </c>
+      <c r="H19" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="J19" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19" s="5">
+        <v>0.72780999999999996</v>
+      </c>
+      <c r="L19" t="s">
+        <v>42</v>
+      </c>
+      <c r="M19" s="6">
+        <v>0.58980999999999995</v>
+      </c>
+      <c r="N19" t="s">
+        <v>42</v>
+      </c>
+      <c r="O19" s="15">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="P19" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>50</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="0"/>
+        <v>0.81039007433258681</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20">
+        <v>124</v>
+      </c>
+      <c r="H20" t="s">
+        <v>42</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="J20" t="s">
+        <v>42</v>
+      </c>
+      <c r="K20" s="5">
+        <v>0.59760000000000002</v>
+      </c>
+      <c r="L20" t="s">
+        <v>42</v>
+      </c>
+      <c r="M20" s="6">
+        <v>0.43844</v>
+      </c>
+      <c r="N20" t="s">
+        <v>42</v>
+      </c>
+      <c r="O20" s="15">
+        <v>0.505</v>
+      </c>
+      <c r="P20" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>50</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="0"/>
+        <v>0.7336680053547523</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21">
+        <v>169</v>
+      </c>
+      <c r="H21" t="s">
+        <v>42</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="J21" t="s">
+        <v>42</v>
+      </c>
+      <c r="K21" s="5">
+        <v>0.61667000000000005</v>
+      </c>
+      <c r="L21" t="s">
+        <v>42</v>
+      </c>
+      <c r="M21" s="6">
+        <v>0.52917000000000003</v>
+      </c>
+      <c r="N21" t="s">
+        <v>42</v>
+      </c>
+      <c r="O21" s="15">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="P21" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>50</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="0"/>
+        <v>0.85810887508716172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22">
+        <v>122</v>
+      </c>
+      <c r="H22" t="s">
+        <v>42</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="J22" t="s">
+        <v>42</v>
+      </c>
+      <c r="K22" s="5">
+        <v>0.57606000000000002</v>
+      </c>
+      <c r="L22" t="s">
+        <v>42</v>
+      </c>
+      <c r="M22" s="6">
+        <v>0.50151999999999997</v>
+      </c>
+      <c r="N22" t="s">
+        <v>42</v>
+      </c>
+      <c r="O22" s="15">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="P22" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>50</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="0"/>
+        <v>0.87060375655313671</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23">
+        <v>768</v>
+      </c>
+      <c r="H23" t="s">
+        <v>42</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="J23" t="s">
+        <v>42</v>
+      </c>
+      <c r="K23" s="5">
+        <v>0.64371999999999996</v>
+      </c>
+      <c r="L23" t="s">
+        <v>42</v>
+      </c>
+      <c r="M23" s="6">
+        <v>0.62468000000000001</v>
+      </c>
+      <c r="N23" t="s">
+        <v>42</v>
+      </c>
+      <c r="O23" s="15">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="P23" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>50</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="0"/>
+        <v>0.97042192257503268</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24">
+        <v>7</v>
+      </c>
+      <c r="D24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24">
+        <v>106</v>
+      </c>
+      <c r="H24" t="s">
+        <v>42</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="J24" t="s">
+        <v>42</v>
+      </c>
+      <c r="K24" s="5">
+        <v>0.90151999999999999</v>
+      </c>
+      <c r="L24" t="s">
+        <v>42</v>
+      </c>
+      <c r="M24" s="6">
+        <v>0.18636</v>
+      </c>
+      <c r="N24" t="s">
+        <v>42</v>
+      </c>
+      <c r="O24" s="15">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="P24" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>50</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="0"/>
+        <v>0.20671754370396664</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25" t="s">
+        <v>42</v>
+      </c>
+      <c r="G25">
+        <v>92</v>
+      </c>
+      <c r="H25" t="s">
+        <v>42</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="J25" t="s">
+        <v>42</v>
+      </c>
+      <c r="K25" s="5">
+        <v>0.50926000000000005</v>
+      </c>
+      <c r="L25" t="s">
+        <v>42</v>
+      </c>
+      <c r="M25" s="6">
+        <v>0.35926000000000002</v>
+      </c>
+      <c r="N25" t="s">
+        <v>42</v>
+      </c>
+      <c r="O25" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P25" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>50</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="0"/>
+        <v>0.70545497388367429</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26">
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26">
+        <v>102</v>
+      </c>
+      <c r="H26" t="s">
+        <v>42</v>
+      </c>
+      <c r="I26" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="J26" t="s">
+        <v>42</v>
+      </c>
+      <c r="K26" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="L26" t="s">
+        <v>42</v>
+      </c>
+      <c r="M26" s="6">
+        <v>0.54166999999999998</v>
+      </c>
+      <c r="N26" t="s">
+        <v>42</v>
+      </c>
+      <c r="O26" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="P26" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>50</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="0"/>
+        <v>0.67708749999999995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27">
+        <v>6</v>
+      </c>
+      <c r="F27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G27">
+        <v>105</v>
+      </c>
+      <c r="H27" t="s">
+        <v>42</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="J27" t="s">
+        <v>42</v>
+      </c>
+      <c r="K27" s="5">
+        <v>0.66515000000000002</v>
+      </c>
+      <c r="L27" t="s">
+        <v>42</v>
+      </c>
+      <c r="M27" s="6">
+        <v>0.20302999999999999</v>
+      </c>
+      <c r="N27" t="s">
+        <v>42</v>
+      </c>
+      <c r="O27" s="15">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="P27" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>50</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="0"/>
+        <v>0.30523941967977147</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28">
+        <v>7</v>
+      </c>
+      <c r="D28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28" t="s">
+        <v>42</v>
+      </c>
+      <c r="G28">
+        <v>210</v>
+      </c>
+      <c r="H28" t="s">
+        <v>42</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="J28" t="s">
+        <v>42</v>
+      </c>
+      <c r="K28" s="5">
+        <v>0.45426</v>
+      </c>
+      <c r="L28" t="s">
+        <v>42</v>
+      </c>
+      <c r="M28" s="6">
+        <v>0.26512000000000002</v>
+      </c>
+      <c r="N28" t="s">
+        <v>42</v>
+      </c>
+      <c r="O28" s="15">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="P28" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>50</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="0"/>
+        <v>0.58363051996653903</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29" t="s">
+        <v>42</v>
+      </c>
+      <c r="G29">
+        <v>151</v>
+      </c>
+      <c r="H29" t="s">
+        <v>42</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="J29" t="s">
+        <v>42</v>
+      </c>
+      <c r="K29" s="5">
+        <v>0.39677000000000001</v>
+      </c>
+      <c r="L29" t="s">
+        <v>42</v>
+      </c>
+      <c r="M29" s="6">
+        <v>0.34731000000000001</v>
+      </c>
+      <c r="N29" t="s">
+        <v>42</v>
+      </c>
+      <c r="O29" s="15">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="P29" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>50</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="0"/>
+        <v>0.87534339793835214</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30">
+        <v>9</v>
+      </c>
+      <c r="D30" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30">
+        <v>958</v>
+      </c>
+      <c r="H30" t="s">
+        <v>42</v>
+      </c>
+      <c r="I30" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="J30" t="s">
+        <v>42</v>
+      </c>
+      <c r="K30" s="5">
+        <v>0.63193999999999995</v>
+      </c>
+      <c r="L30" t="s">
+        <v>42</v>
+      </c>
+      <c r="M30" s="6">
+        <v>0.35781000000000002</v>
+      </c>
+      <c r="N30" t="s">
+        <v>42</v>
+      </c>
+      <c r="O30" s="15">
+        <v>0.63</v>
+      </c>
+      <c r="P30" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>50</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="0"/>
+        <v>0.56620881729278105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G31">
+        <v>310</v>
+      </c>
+      <c r="H31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I31" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="J31" t="s">
+        <v>42</v>
+      </c>
+      <c r="K31" s="5">
+        <v>0.63492000000000004</v>
+      </c>
+      <c r="L31" t="s">
+        <v>42</v>
+      </c>
+      <c r="M31" s="6">
+        <v>0.46507999999999999</v>
+      </c>
+      <c r="N31" t="s">
+        <v>42</v>
+      </c>
+      <c r="O31" s="15">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="P31" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>50</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="0"/>
+        <v>0.73250173250173245</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32" t="s">
+        <v>42</v>
+      </c>
+      <c r="G32">
+        <v>310</v>
+      </c>
+      <c r="H32" t="s">
+        <v>42</v>
+      </c>
+      <c r="I32" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="J32" t="s">
+        <v>42</v>
+      </c>
+      <c r="K32" s="5">
+        <v>0.58570999999999995</v>
+      </c>
+      <c r="L32" t="s">
+        <v>42</v>
+      </c>
+      <c r="M32" s="6">
+        <v>0.18465999999999999</v>
+      </c>
+      <c r="N32" t="s">
+        <v>42</v>
+      </c>
+      <c r="O32" s="15">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="P32" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>50</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="0"/>
+        <v>0.31527547762544605</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" t="s">
+        <v>84</v>
+      </c>
+      <c r="F33" t="s">
+        <v>42</v>
+      </c>
+      <c r="G33" t="s">
+        <v>84</v>
+      </c>
+      <c r="H33" t="s">
+        <v>42</v>
+      </c>
+      <c r="I33" t="s">
+        <v>84</v>
+      </c>
+      <c r="J33" t="s">
+        <v>42</v>
+      </c>
+      <c r="K33" t="s">
+        <v>85</v>
+      </c>
+      <c r="L33" t="s">
+        <v>42</v>
+      </c>
+      <c r="M33" t="s">
+        <v>90</v>
+      </c>
+      <c r="O33" t="s">
+        <v>86</v>
+      </c>
+      <c r="P33" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>50</v>
+      </c>
+      <c r="T33">
+        <f>AVERAGE(T3:T32)</f>
+        <v>0.71466616721036291</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="P2" r:id="rId1" xr:uid="{258B1B79-355B-704A-8338-F69908B97E3D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB36284-073C-1341-A8C8-2525ED037192}">
+  <dimension ref="A1:D30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.1640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="30.5" customWidth="1"/>
+    <col min="3" max="4" width="16.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5">
+      <c r="C1" s="5">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="D1" s="6">
+        <v>0.38133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="7">
-        <v>0</v>
+      <c r="C2" s="5">
+        <v>0.92532999999999999</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0.85467000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
-        <v>0.86980000000000002</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="7">
-        <v>5.8799999999999998E-2</v>
+      <c r="C3" s="5">
+        <v>0.67090000000000005</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.18889</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
-        <v>0.75270000000000004</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="7">
-        <v>1.72E-2</v>
+      <c r="C4" s="5">
+        <v>0.74666999999999994</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.74443999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
-        <v>0.72589999999999999</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1.21E-2</v>
+      <c r="C5" s="5">
+        <v>0.72414000000000001</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.72011000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5">
-        <v>0.95930000000000004</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="7">
-        <v>3.3E-3</v>
+      <c r="C6" s="5">
+        <v>0.95523999999999998</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.73856999999999995</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5">
-        <v>0.4773</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0.1118</v>
+      <c r="C7" s="5">
+        <v>0.40909000000000001</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.18182000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5">
-        <v>0.65590000000000004</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0.25430000000000003</v>
+      <c r="C8" s="5">
+        <v>0.59216000000000002</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.44069000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5">
-        <v>0.75319999999999998</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="7">
-        <v>0.20860000000000001</v>
+      <c r="C9" s="5">
+        <v>0.81623000000000001</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.54783999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5">
-        <v>0.84609999999999996</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="7">
-        <v>8.1299999999999997E-2</v>
+      <c r="C10" s="5">
+        <v>0.76126000000000005</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.58442000000000005</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="5">
-        <v>0.85709999999999997</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="7">
-        <v>0</v>
+      <c r="C11" s="5">
+        <v>0.85714000000000001</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.81269999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="A12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="5">
-        <v>0.45119999999999999</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="7">
-        <v>0.26090000000000002</v>
+      <c r="C12" s="5">
+        <v>0.43875999999999998</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0.28682000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="A13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="5">
-        <v>0.74839999999999995</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="7">
-        <v>5.8200000000000002E-2</v>
+      <c r="C13" s="5">
+        <v>0.78817000000000004</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0.78332999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="A14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="5">
-        <v>0.64380000000000004</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="7">
-        <v>5.0799999999999998E-2</v>
+      <c r="C14" s="5">
+        <v>0.34166999999999997</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0.35104000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="A15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="5">
-        <v>0.67349999999999999</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="7">
-        <v>2.35E-2</v>
+      <c r="C15" s="5">
+        <v>0.68376000000000003</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0.68347999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+      <c r="A16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="5">
-        <v>0.83230000000000004</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0.2114</v>
+      <c r="C16" s="5">
+        <v>0.70108000000000004</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0.41182999999999997</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="A17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="5">
-        <v>0.7601</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="7">
-        <v>0.1111</v>
+      <c r="C17" s="5">
+        <v>0.72780999999999996</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0.58980999999999995</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="A18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="5">
-        <v>0.82430000000000003</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="7">
-        <v>4.7899999999999998E-2</v>
+      <c r="C18" s="5">
+        <v>0.59760000000000002</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0.43844</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+      <c r="A19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="5">
-        <v>0.63829999999999998</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="7">
-        <v>4.58E-2</v>
+      <c r="C19" s="5">
+        <v>0.61667000000000005</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0.52917000000000003</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+      <c r="A20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="5">
-        <v>0.77729999999999999</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2.9899999999999999E-2</v>
+      <c r="C20" s="5">
+        <v>0.57606000000000002</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0.50151999999999997</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+      <c r="A21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="5">
-        <v>0.71360000000000001</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="7">
-        <v>6.3799999999999996E-2</v>
+      <c r="C21" s="5">
+        <v>0.64371999999999996</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0.62468000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+      <c r="A22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="5">
-        <v>0.88639999999999997</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="7">
-        <v>4.19E-2</v>
+      <c r="C22" s="5">
+        <v>0.90151999999999999</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0.18636</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="5">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="7">
-        <v>0.1009</v>
+      <c r="A23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0.50926000000000005</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0.35926000000000002</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="5">
-        <v>0.52780000000000005</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="7">
-        <v>5.1200000000000002E-2</v>
+      <c r="A24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0.54166999999999998</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="7">
-        <v>0</v>
+      <c r="A25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0.66515000000000002</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0.20302999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="5">
-        <v>0.28639999999999999</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="7">
-        <v>0.249</v>
+      <c r="A26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0.45426</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0.26512000000000002</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="5">
-        <v>0.63160000000000005</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="7">
-        <v>0</v>
+      <c r="A27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="5">
+        <v>0.39677000000000001</v>
+      </c>
+      <c r="D27" s="6">
+        <v>0.34731000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="5">
-        <v>0.79769999999999996</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="7">
-        <v>0.17119999999999999</v>
+      <c r="A28" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0.63193999999999995</v>
+      </c>
+      <c r="D28" s="6">
+        <v>0.35781000000000002</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="5">
-        <v>0.44190000000000002</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="7">
-        <v>9.9000000000000005E-2</v>
+      <c r="A29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="5">
+        <v>0.63492000000000004</v>
+      </c>
+      <c r="D29" s="6">
+        <v>0.46507999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="5">
-        <v>0.83330000000000004</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="7">
-        <v>0.1313</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="5">
-        <v>0.67300000000000004</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="7">
-        <v>7.6200000000000004E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
+      <c r="A30" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="5">
-        <v>0.77300000000000002</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" s="7">
-        <v>0.1041</v>
+      <c r="C30" s="5">
+        <v>0.58570999999999995</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0.18465999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/result/all_result.xlsx
+++ b/result/all_result.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haibinzhao/Desktop/TECO/11_Split_Manufacturing one mask/PythonCode/result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E082152-A7A8-5D40-BDD3-A88B5C3CE924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B1B8EA-B8E7-2F42-989D-24908256DD0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35840" yWindow="-15500" windowWidth="21600" windowHeight="37900" activeTab="1" xr2:uid="{FD5D705E-786A-EF44-8161-2F4ED230A322}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20620" activeTab="5" xr2:uid="{FD5D705E-786A-EF44-8161-2F4ED230A322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1607" uniqueCount="126">
   <si>
     <t xml:space="preserve">acuteinflammation        </t>
   </si>
@@ -310,14 +314,120 @@
   </si>
   <si>
     <t>\textbf{0.715$^{*}$}   &amp;</t>
+  </si>
+  <si>
+    <t>\textbf{$\#$input}</t>
+  </si>
+  <si>
+    <t>\textbf{$\#$output}</t>
+  </si>
+  <si>
+    <t>\textbf{baseline}</t>
+  </si>
+  <si>
+    <t>\textbf{accuracy}</t>
+  </si>
+  <si>
+    <t>\textbf{common}</t>
+  </si>
+  <si>
+    <t>\textbf{individual}</t>
+  </si>
+  <si>
+    <t>\textbf{summarized accuracy}</t>
+  </si>
+  <si>
+    <t>\textbf{reprinting cost}</t>
+  </si>
+  <si>
+    <t>\textbf{cost saving}</t>
+  </si>
+  <si>
+    <t>\multicolumn{5}{c}{\textbf{split additive manufacutring}}</t>
+  </si>
+  <si>
+    <t>\multirow{5}{*}{\textbf{split additive manufacutring}}</t>
+  </si>
+  <si>
+    <t>6-2</t>
+  </si>
+  <si>
+    <t>4-3</t>
+  </si>
+  <si>
+    <t>4-2</t>
+  </si>
+  <si>
+    <t>9-2</t>
+  </si>
+  <si>
+    <t>9-6</t>
+  </si>
+  <si>
+    <t>7-8</t>
+  </si>
+  <si>
+    <t>8-3</t>
+  </si>
+  <si>
+    <t>3-2</t>
+  </si>
+  <si>
+    <t>3-3</t>
+  </si>
+  <si>
+    <t>5-2</t>
+  </si>
+  <si>
+    <t>8-2</t>
+  </si>
+  <si>
+    <t>7-3</t>
+  </si>
+  <si>
+    <t>7-2</t>
+  </si>
+  <si>
+    <t>7-6</t>
+  </si>
+  <si>
+    <t>5-3</t>
+  </si>
+  <si>
+    <t>6-3</t>
+  </si>
+  <si>
+    <t>\textbf{dataset}</t>
+  </si>
+  <si>
+    <t>\textbf{index}</t>
+  </si>
+  <si>
+    <t>\multicolumn{12}{l}{}</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>^</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>\multirow{2}{*}{\textbf{dataset}}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -415,7 +525,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -433,6 +543,11 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -445,9 +560,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -800,72 +915,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="9" t="s">
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="11"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="16"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="9" t="s">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="9" t="s">
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="10" t="s">
+      <c r="G2" s="15"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="9" t="s">
+      <c r="J2" s="15"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="10"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="9" t="s">
+      <c r="M2" s="15"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10" t="s">
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="11"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="16"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -2897,11 +3012,451 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB36284-073C-1341-A8C8-2525ED037192}">
+  <dimension ref="A1:D30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.1640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="30.5" customWidth="1"/>
+    <col min="3" max="4" width="16.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="D1" s="6">
+        <v>0.38133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.92532999999999999</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0.85467000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.67090000000000005</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.18889</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.74666999999999994</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.74443999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.72414000000000001</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.72011000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.95523999999999998</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.73856999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.40909000000000001</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.18182000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.59216000000000002</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.44069000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.81623000000000001</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.54783999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.76126000000000005</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.58442000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.85714000000000001</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.81269999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.43875999999999998</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0.28682000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.78817000000000004</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0.78332999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.34166999999999997</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0.35104000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.68376000000000003</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0.68347999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.70108000000000004</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0.41182999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.72780999999999996</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0.58980999999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.59760000000000002</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0.43844</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.61667000000000005</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0.52917000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.57606000000000002</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0.50151999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0.64371999999999996</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0.62468000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0.90151999999999999</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0.18636</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0.50926000000000005</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0.35926000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0.54166999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0.66515000000000002</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0.20302999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0.45426</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0.26512000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="5">
+        <v>0.39677000000000001</v>
+      </c>
+      <c r="D27" s="6">
+        <v>0.34731000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0.63193999999999995</v>
+      </c>
+      <c r="D28" s="6">
+        <v>0.35781000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="5">
+        <v>0.63492000000000004</v>
+      </c>
+      <c r="D29" s="6">
+        <v>0.46507999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="5">
+        <v>0.58570999999999995</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0.18465999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8C9DE0D-B218-4E43-9C1E-586418B7C76B}">
-  <dimension ref="A1:T33"/>
+  <dimension ref="A1:T76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="U70" sqref="U70"/>
+    <sheetView topLeftCell="A31" zoomScale="92" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47:G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2927,31 +3482,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="18" t="s">
         <v>43</v>
       </c>
       <c r="D1" t="s">
         <v>42</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="18" t="s">
         <v>44</v>
       </c>
       <c r="F1" t="s">
         <v>42</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="18" t="s">
         <v>45</v>
       </c>
       <c r="H1" t="s">
         <v>42</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="18" t="s">
         <v>46</v>
       </c>
       <c r="J1" t="s">
@@ -2977,18 +3532,23 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" s="18"/>
       <c r="B2" t="s">
         <v>42</v>
       </c>
+      <c r="C2" s="18"/>
       <c r="D2" t="s">
         <v>42</v>
       </c>
+      <c r="E2" s="18"/>
       <c r="F2" t="s">
         <v>42</v>
       </c>
+      <c r="G2" s="18"/>
       <c r="H2" t="s">
         <v>42</v>
       </c>
+      <c r="I2" s="18"/>
       <c r="J2" t="s">
         <v>42</v>
       </c>
@@ -3007,7 +3567,7 @@
       <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="P2" s="9" t="s">
         <v>49</v>
       </c>
       <c r="Q2" t="s">
@@ -3039,7 +3599,7 @@
       <c r="H3" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="10" t="s">
         <v>89</v>
       </c>
       <c r="J3" t="s">
@@ -3057,7 +3617,7 @@
       <c r="N3" t="s">
         <v>42</v>
       </c>
-      <c r="O3" s="15">
+      <c r="O3" s="11">
         <v>0.32</v>
       </c>
       <c r="P3" t="s">
@@ -3096,7 +3656,7 @@
       <c r="H4" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="10" t="s">
         <v>89</v>
       </c>
       <c r="J4" t="s">
@@ -3114,7 +3674,7 @@
       <c r="N4" t="s">
         <v>42</v>
       </c>
-      <c r="O4" s="15">
+      <c r="O4" s="11">
         <v>0.64</v>
       </c>
       <c r="P4" t="s">
@@ -3153,7 +3713,7 @@
       <c r="H5" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="10" t="s">
         <v>89</v>
       </c>
       <c r="J5" t="s">
@@ -3171,7 +3731,7 @@
       <c r="N5" t="s">
         <v>42</v>
       </c>
-      <c r="O5" s="15">
+      <c r="O5" s="11">
         <v>0.42099999999999999</v>
       </c>
       <c r="P5" t="s">
@@ -3210,7 +3770,7 @@
       <c r="H6" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="10" t="s">
         <v>89</v>
       </c>
       <c r="J6" t="s">
@@ -3228,7 +3788,7 @@
       <c r="N6" t="s">
         <v>42</v>
       </c>
-      <c r="O6" s="15">
+      <c r="O6" s="11">
         <v>0.747</v>
       </c>
       <c r="P6" t="s">
@@ -3267,7 +3827,7 @@
       <c r="H7" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="10" t="s">
         <v>89</v>
       </c>
       <c r="J7" t="s">
@@ -3285,7 +3845,7 @@
       <c r="N7" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="15">
+      <c r="O7" s="11">
         <v>0.72399999999999998</v>
       </c>
       <c r="P7" t="s">
@@ -3324,7 +3884,7 @@
       <c r="H8" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="10" t="s">
         <v>89</v>
       </c>
       <c r="J8" t="s">
@@ -3342,7 +3902,7 @@
       <c r="N8" t="s">
         <v>42</v>
       </c>
-      <c r="O8" s="15">
+      <c r="O8" s="11">
         <v>0.69299999999999995</v>
       </c>
       <c r="P8" t="s">
@@ -3381,7 +3941,7 @@
       <c r="H9" t="s">
         <v>42</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="10" t="s">
         <v>89</v>
       </c>
       <c r="J9" t="s">
@@ -3399,7 +3959,7 @@
       <c r="N9" t="s">
         <v>42</v>
       </c>
-      <c r="O9" s="15">
+      <c r="O9" s="11">
         <v>0.182</v>
       </c>
       <c r="P9" t="s">
@@ -3438,7 +3998,7 @@
       <c r="H10" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="10" t="s">
         <v>89</v>
       </c>
       <c r="J10" t="s">
@@ -3456,7 +4016,7 @@
       <c r="N10" t="s">
         <v>42</v>
       </c>
-      <c r="O10" s="15">
+      <c r="O10" s="11">
         <v>0.42699999999999999</v>
       </c>
       <c r="P10" t="s">
@@ -3495,7 +4055,7 @@
       <c r="H11" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="I11" s="10" t="s">
         <v>89</v>
       </c>
       <c r="J11" t="s">
@@ -3513,7 +4073,7 @@
       <c r="N11" t="s">
         <v>42</v>
       </c>
-      <c r="O11" s="15">
+      <c r="O11" s="11">
         <v>0.5</v>
       </c>
       <c r="P11" t="s">
@@ -3552,7 +4112,7 @@
       <c r="H12" t="s">
         <v>42</v>
       </c>
-      <c r="I12" s="14" t="s">
+      <c r="I12" s="10" t="s">
         <v>89</v>
       </c>
       <c r="J12" t="s">
@@ -3570,7 +4130,7 @@
       <c r="N12" t="s">
         <v>42</v>
       </c>
-      <c r="O12" s="15">
+      <c r="O12" s="11">
         <v>0.52600000000000002</v>
       </c>
       <c r="P12" t="s">
@@ -3609,7 +4169,7 @@
       <c r="H13" t="s">
         <v>42</v>
       </c>
-      <c r="I13" s="14" t="s">
+      <c r="I13" s="10" t="s">
         <v>89</v>
       </c>
       <c r="J13" t="s">
@@ -3627,7 +4187,7 @@
       <c r="N13" t="s">
         <v>42</v>
       </c>
-      <c r="O13" s="15">
+      <c r="O13" s="11">
         <v>0.85699999999999998</v>
       </c>
       <c r="P13" t="s">
@@ -3666,7 +4226,7 @@
       <c r="H14" t="s">
         <v>42</v>
       </c>
-      <c r="I14" s="14" t="s">
+      <c r="I14" s="10" t="s">
         <v>89</v>
       </c>
       <c r="J14" t="s">
@@ -3684,7 +4244,7 @@
       <c r="N14" t="s">
         <v>42</v>
       </c>
-      <c r="O14" s="15">
+      <c r="O14" s="11">
         <v>0.32600000000000001</v>
       </c>
       <c r="P14" t="s">
@@ -3723,7 +4283,7 @@
       <c r="H15" t="s">
         <v>42</v>
       </c>
-      <c r="I15" s="14" t="s">
+      <c r="I15" s="10" t="s">
         <v>89</v>
       </c>
       <c r="J15" t="s">
@@ -3741,7 +4301,7 @@
       <c r="N15" t="s">
         <v>42</v>
       </c>
-      <c r="O15" s="15">
+      <c r="O15" s="11">
         <v>0.79</v>
       </c>
       <c r="P15" t="s">
@@ -3780,7 +4340,7 @@
       <c r="H16" t="s">
         <v>42</v>
       </c>
-      <c r="I16" s="14" t="s">
+      <c r="I16" s="10" t="s">
         <v>89</v>
       </c>
       <c r="J16" t="s">
@@ -3798,7 +4358,7 @@
       <c r="N16" t="s">
         <v>42</v>
       </c>
-      <c r="O16" s="15">
+      <c r="O16" s="11">
         <v>0.34399999999999997</v>
       </c>
       <c r="P16" t="s">
@@ -3837,7 +4397,7 @@
       <c r="H17" t="s">
         <v>42</v>
       </c>
-      <c r="I17" s="14" t="s">
+      <c r="I17" s="10" t="s">
         <v>89</v>
       </c>
       <c r="J17" t="s">
@@ -3855,7 +4415,7 @@
       <c r="N17" t="s">
         <v>42</v>
       </c>
-      <c r="O17" s="15">
+      <c r="O17" s="11">
         <v>0.68400000000000005</v>
       </c>
       <c r="P17" t="s">
@@ -3894,7 +4454,7 @@
       <c r="H18" t="s">
         <v>42</v>
       </c>
-      <c r="I18" s="14" t="s">
+      <c r="I18" s="10" t="s">
         <v>89</v>
       </c>
       <c r="J18" t="s">
@@ -3912,7 +4472,7 @@
       <c r="N18" t="s">
         <v>42</v>
       </c>
-      <c r="O18" s="15">
+      <c r="O18" s="11">
         <v>0.32300000000000001</v>
       </c>
       <c r="P18" t="s">
@@ -3951,7 +4511,7 @@
       <c r="H19" t="s">
         <v>42</v>
       </c>
-      <c r="I19" s="14" t="s">
+      <c r="I19" s="10" t="s">
         <v>89</v>
       </c>
       <c r="J19" t="s">
@@ -3969,7 +4529,7 @@
       <c r="N19" t="s">
         <v>42</v>
       </c>
-      <c r="O19" s="15">
+      <c r="O19" s="11">
         <v>0.53900000000000003</v>
       </c>
       <c r="P19" t="s">
@@ -4008,7 +4568,7 @@
       <c r="H20" t="s">
         <v>42</v>
       </c>
-      <c r="I20" s="14" t="s">
+      <c r="I20" s="10" t="s">
         <v>89</v>
       </c>
       <c r="J20" t="s">
@@ -4026,7 +4586,7 @@
       <c r="N20" t="s">
         <v>42</v>
       </c>
-      <c r="O20" s="15">
+      <c r="O20" s="11">
         <v>0.505</v>
       </c>
       <c r="P20" t="s">
@@ -4065,7 +4625,7 @@
       <c r="H21" t="s">
         <v>42</v>
       </c>
-      <c r="I21" s="14" t="s">
+      <c r="I21" s="10" t="s">
         <v>89</v>
       </c>
       <c r="J21" t="s">
@@ -4083,7 +4643,7 @@
       <c r="N21" t="s">
         <v>42</v>
       </c>
-      <c r="O21" s="15">
+      <c r="O21" s="11">
         <v>0.61699999999999999</v>
       </c>
       <c r="P21" t="s">
@@ -4122,7 +4682,7 @@
       <c r="H22" t="s">
         <v>42</v>
       </c>
-      <c r="I22" s="14" t="s">
+      <c r="I22" s="10" t="s">
         <v>89</v>
       </c>
       <c r="J22" t="s">
@@ -4140,7 +4700,7 @@
       <c r="N22" t="s">
         <v>42</v>
       </c>
-      <c r="O22" s="15">
+      <c r="O22" s="11">
         <v>0.49099999999999999</v>
       </c>
       <c r="P22" t="s">
@@ -4179,7 +4739,7 @@
       <c r="H23" t="s">
         <v>42</v>
       </c>
-      <c r="I23" s="14" t="s">
+      <c r="I23" s="10" t="s">
         <v>89</v>
       </c>
       <c r="J23" t="s">
@@ -4197,7 +4757,7 @@
       <c r="N23" t="s">
         <v>42</v>
       </c>
-      <c r="O23" s="15">
+      <c r="O23" s="11">
         <v>0.64300000000000002</v>
       </c>
       <c r="P23" t="s">
@@ -4236,7 +4796,7 @@
       <c r="H24" t="s">
         <v>42</v>
       </c>
-      <c r="I24" s="14" t="s">
+      <c r="I24" s="10" t="s">
         <v>89</v>
       </c>
       <c r="J24" t="s">
@@ -4254,7 +4814,7 @@
       <c r="N24" t="s">
         <v>42</v>
       </c>
-      <c r="O24" s="15">
+      <c r="O24" s="11">
         <v>0.86399999999999999</v>
       </c>
       <c r="P24" t="s">
@@ -4293,7 +4853,7 @@
       <c r="H25" t="s">
         <v>42</v>
       </c>
-      <c r="I25" s="14" t="s">
+      <c r="I25" s="10" t="s">
         <v>89</v>
       </c>
       <c r="J25" t="s">
@@ -4311,7 +4871,7 @@
       <c r="N25" t="s">
         <v>42</v>
       </c>
-      <c r="O25" s="15">
+      <c r="O25" s="11">
         <v>0.5</v>
       </c>
       <c r="P25" t="s">
@@ -4350,7 +4910,7 @@
       <c r="H26" t="s">
         <v>42</v>
       </c>
-      <c r="I26" s="14" t="s">
+      <c r="I26" s="10" t="s">
         <v>89</v>
       </c>
       <c r="J26" t="s">
@@ -4368,7 +4928,7 @@
       <c r="N26" t="s">
         <v>42</v>
       </c>
-      <c r="O26" s="15">
+      <c r="O26" s="11">
         <v>0.8</v>
       </c>
       <c r="P26" t="s">
@@ -4407,7 +4967,7 @@
       <c r="H27" t="s">
         <v>42</v>
       </c>
-      <c r="I27" s="14" t="s">
+      <c r="I27" s="10" t="s">
         <v>89</v>
       </c>
       <c r="J27" t="s">
@@ -4425,7 +4985,7 @@
       <c r="N27" t="s">
         <v>42</v>
       </c>
-      <c r="O27" s="15">
+      <c r="O27" s="11">
         <v>0.63600000000000001</v>
       </c>
       <c r="P27" t="s">
@@ -4464,7 +5024,7 @@
       <c r="H28" t="s">
         <v>42</v>
       </c>
-      <c r="I28" s="14" t="s">
+      <c r="I28" s="10" t="s">
         <v>89</v>
       </c>
       <c r="J28" t="s">
@@ -4482,7 +5042,7 @@
       <c r="N28" t="s">
         <v>42</v>
       </c>
-      <c r="O28" s="15">
+      <c r="O28" s="11">
         <v>0.20899999999999999</v>
       </c>
       <c r="P28" t="s">
@@ -4521,7 +5081,7 @@
       <c r="H29" t="s">
         <v>42</v>
       </c>
-      <c r="I29" s="14" t="s">
+      <c r="I29" s="10" t="s">
         <v>89</v>
       </c>
       <c r="J29" t="s">
@@ -4539,7 +5099,7 @@
       <c r="N29" t="s">
         <v>42</v>
       </c>
-      <c r="O29" s="15">
+      <c r="O29" s="11">
         <v>0.25800000000000001</v>
       </c>
       <c r="P29" t="s">
@@ -4578,7 +5138,7 @@
       <c r="H30" t="s">
         <v>42</v>
       </c>
-      <c r="I30" s="14" t="s">
+      <c r="I30" s="10" t="s">
         <v>89</v>
       </c>
       <c r="J30" t="s">
@@ -4596,7 +5156,7 @@
       <c r="N30" t="s">
         <v>42</v>
       </c>
-      <c r="O30" s="15">
+      <c r="O30" s="11">
         <v>0.63</v>
       </c>
       <c r="P30" t="s">
@@ -4635,7 +5195,7 @@
       <c r="H31" t="s">
         <v>42</v>
       </c>
-      <c r="I31" s="14" t="s">
+      <c r="I31" s="10" t="s">
         <v>89</v>
       </c>
       <c r="J31" t="s">
@@ -4653,7 +5213,7 @@
       <c r="N31" t="s">
         <v>42</v>
       </c>
-      <c r="O31" s="15">
+      <c r="O31" s="11">
         <v>0.63500000000000001</v>
       </c>
       <c r="P31" t="s">
@@ -4692,7 +5252,7 @@
       <c r="H32" t="s">
         <v>42</v>
       </c>
-      <c r="I32" s="14" t="s">
+      <c r="I32" s="10" t="s">
         <v>89</v>
       </c>
       <c r="J32" t="s">
@@ -4710,7 +5270,7 @@
       <c r="N32" t="s">
         <v>42</v>
       </c>
-      <c r="O32" s="15">
+      <c r="O32" s="11">
         <v>0.47599999999999998</v>
       </c>
       <c r="P32" t="s">
@@ -4778,451 +5338,4121 @@
         <v>0.71466616721036291</v>
       </c>
     </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>121</v>
+      </c>
+      <c r="B47" t="s">
+        <v>122</v>
+      </c>
+      <c r="C47" t="s">
+        <v>123</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>124</v>
+      </c>
+      <c r="F47" t="s">
+        <v>121</v>
+      </c>
+      <c r="G47" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>121</v>
+      </c>
+      <c r="B48" t="s">
+        <v>122</v>
+      </c>
+      <c r="C48" t="s">
+        <v>123</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48" t="s">
+        <v>124</v>
+      </c>
+      <c r="F48" t="s">
+        <v>121</v>
+      </c>
+      <c r="G48" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>121</v>
+      </c>
+      <c r="B49" t="s">
+        <v>122</v>
+      </c>
+      <c r="C49" t="s">
+        <v>123</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49" t="s">
+        <v>124</v>
+      </c>
+      <c r="F49" t="s">
+        <v>121</v>
+      </c>
+      <c r="G49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>121</v>
+      </c>
+      <c r="B50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C50" t="s">
+        <v>123</v>
+      </c>
+      <c r="D50">
+        <v>4</v>
+      </c>
+      <c r="E50" t="s">
+        <v>124</v>
+      </c>
+      <c r="F50" t="s">
+        <v>121</v>
+      </c>
+      <c r="G50" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>121</v>
+      </c>
+      <c r="B51" t="s">
+        <v>122</v>
+      </c>
+      <c r="C51" t="s">
+        <v>123</v>
+      </c>
+      <c r="D51">
+        <v>5</v>
+      </c>
+      <c r="E51" t="s">
+        <v>124</v>
+      </c>
+      <c r="F51" t="s">
+        <v>121</v>
+      </c>
+      <c r="G51" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>121</v>
+      </c>
+      <c r="B52" t="s">
+        <v>122</v>
+      </c>
+      <c r="C52" t="s">
+        <v>123</v>
+      </c>
+      <c r="D52">
+        <v>6</v>
+      </c>
+      <c r="E52" t="s">
+        <v>124</v>
+      </c>
+      <c r="F52" t="s">
+        <v>121</v>
+      </c>
+      <c r="G52" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>121</v>
+      </c>
+      <c r="B53" t="s">
+        <v>122</v>
+      </c>
+      <c r="C53" t="s">
+        <v>123</v>
+      </c>
+      <c r="D53">
+        <v>7</v>
+      </c>
+      <c r="E53" t="s">
+        <v>124</v>
+      </c>
+      <c r="F53" t="s">
+        <v>121</v>
+      </c>
+      <c r="G53" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>121</v>
+      </c>
+      <c r="B54" t="s">
+        <v>122</v>
+      </c>
+      <c r="C54" t="s">
+        <v>123</v>
+      </c>
+      <c r="D54">
+        <v>8</v>
+      </c>
+      <c r="E54" t="s">
+        <v>124</v>
+      </c>
+      <c r="F54" t="s">
+        <v>121</v>
+      </c>
+      <c r="G54" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>121</v>
+      </c>
+      <c r="B55" t="s">
+        <v>122</v>
+      </c>
+      <c r="C55" t="s">
+        <v>123</v>
+      </c>
+      <c r="D55">
+        <v>9</v>
+      </c>
+      <c r="E55" t="s">
+        <v>124</v>
+      </c>
+      <c r="F55" t="s">
+        <v>121</v>
+      </c>
+      <c r="G55" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>121</v>
+      </c>
+      <c r="B56" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" t="s">
+        <v>123</v>
+      </c>
+      <c r="D56">
+        <v>10</v>
+      </c>
+      <c r="E56" t="s">
+        <v>124</v>
+      </c>
+      <c r="F56" t="s">
+        <v>121</v>
+      </c>
+      <c r="G56" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B57" t="s">
+        <v>122</v>
+      </c>
+      <c r="C57" t="s">
+        <v>123</v>
+      </c>
+      <c r="D57">
+        <v>11</v>
+      </c>
+      <c r="E57" t="s">
+        <v>124</v>
+      </c>
+      <c r="F57" t="s">
+        <v>121</v>
+      </c>
+      <c r="G57" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>121</v>
+      </c>
+      <c r="B58" t="s">
+        <v>122</v>
+      </c>
+      <c r="C58" t="s">
+        <v>123</v>
+      </c>
+      <c r="D58">
+        <v>12</v>
+      </c>
+      <c r="E58" t="s">
+        <v>124</v>
+      </c>
+      <c r="F58" t="s">
+        <v>121</v>
+      </c>
+      <c r="G58" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>121</v>
+      </c>
+      <c r="B59" t="s">
+        <v>122</v>
+      </c>
+      <c r="C59" t="s">
+        <v>123</v>
+      </c>
+      <c r="D59">
+        <v>13</v>
+      </c>
+      <c r="E59" t="s">
+        <v>124</v>
+      </c>
+      <c r="F59" t="s">
+        <v>121</v>
+      </c>
+      <c r="G59" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>121</v>
+      </c>
+      <c r="B60" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" t="s">
+        <v>123</v>
+      </c>
+      <c r="D60">
+        <v>14</v>
+      </c>
+      <c r="E60" t="s">
+        <v>124</v>
+      </c>
+      <c r="F60" t="s">
+        <v>121</v>
+      </c>
+      <c r="G60" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>121</v>
+      </c>
+      <c r="B61" t="s">
+        <v>122</v>
+      </c>
+      <c r="C61" t="s">
+        <v>123</v>
+      </c>
+      <c r="D61">
+        <v>15</v>
+      </c>
+      <c r="E61" t="s">
+        <v>124</v>
+      </c>
+      <c r="F61" t="s">
+        <v>121</v>
+      </c>
+      <c r="G61" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62" t="s">
+        <v>122</v>
+      </c>
+      <c r="C62" t="s">
+        <v>123</v>
+      </c>
+      <c r="D62">
+        <v>16</v>
+      </c>
+      <c r="E62" t="s">
+        <v>124</v>
+      </c>
+      <c r="F62" t="s">
+        <v>121</v>
+      </c>
+      <c r="G62" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>121</v>
+      </c>
+      <c r="B63" t="s">
+        <v>122</v>
+      </c>
+      <c r="C63" t="s">
+        <v>123</v>
+      </c>
+      <c r="D63">
+        <v>17</v>
+      </c>
+      <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
+        <v>121</v>
+      </c>
+      <c r="G63" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>121</v>
+      </c>
+      <c r="B64" t="s">
+        <v>122</v>
+      </c>
+      <c r="C64" t="s">
+        <v>123</v>
+      </c>
+      <c r="D64">
+        <v>18</v>
+      </c>
+      <c r="E64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" t="s">
+        <v>121</v>
+      </c>
+      <c r="G64" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>121</v>
+      </c>
+      <c r="B65" t="s">
+        <v>122</v>
+      </c>
+      <c r="C65" t="s">
+        <v>123</v>
+      </c>
+      <c r="D65">
+        <v>19</v>
+      </c>
+      <c r="E65" t="s">
+        <v>124</v>
+      </c>
+      <c r="F65" t="s">
+        <v>121</v>
+      </c>
+      <c r="G65" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>121</v>
+      </c>
+      <c r="B66" t="s">
+        <v>122</v>
+      </c>
+      <c r="C66" t="s">
+        <v>123</v>
+      </c>
+      <c r="D66">
+        <v>20</v>
+      </c>
+      <c r="E66" t="s">
+        <v>124</v>
+      </c>
+      <c r="F66" t="s">
+        <v>121</v>
+      </c>
+      <c r="G66" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>121</v>
+      </c>
+      <c r="B67" t="s">
+        <v>122</v>
+      </c>
+      <c r="C67" t="s">
+        <v>123</v>
+      </c>
+      <c r="D67">
+        <v>21</v>
+      </c>
+      <c r="E67" t="s">
+        <v>124</v>
+      </c>
+      <c r="F67" t="s">
+        <v>121</v>
+      </c>
+      <c r="G67" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>121</v>
+      </c>
+      <c r="B68" t="s">
+        <v>122</v>
+      </c>
+      <c r="C68" t="s">
+        <v>123</v>
+      </c>
+      <c r="D68">
+        <v>22</v>
+      </c>
+      <c r="E68" t="s">
+        <v>124</v>
+      </c>
+      <c r="F68" t="s">
+        <v>121</v>
+      </c>
+      <c r="G68" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>121</v>
+      </c>
+      <c r="B69" t="s">
+        <v>122</v>
+      </c>
+      <c r="C69" t="s">
+        <v>123</v>
+      </c>
+      <c r="D69">
+        <v>23</v>
+      </c>
+      <c r="E69" t="s">
+        <v>124</v>
+      </c>
+      <c r="F69" t="s">
+        <v>121</v>
+      </c>
+      <c r="G69" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>121</v>
+      </c>
+      <c r="B70" t="s">
+        <v>122</v>
+      </c>
+      <c r="C70" t="s">
+        <v>123</v>
+      </c>
+      <c r="D70">
+        <v>24</v>
+      </c>
+      <c r="E70" t="s">
+        <v>124</v>
+      </c>
+      <c r="F70" t="s">
+        <v>121</v>
+      </c>
+      <c r="G70" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>121</v>
+      </c>
+      <c r="B71" t="s">
+        <v>122</v>
+      </c>
+      <c r="C71" t="s">
+        <v>123</v>
+      </c>
+      <c r="D71">
+        <v>25</v>
+      </c>
+      <c r="E71" t="s">
+        <v>124</v>
+      </c>
+      <c r="F71" t="s">
+        <v>121</v>
+      </c>
+      <c r="G71" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>121</v>
+      </c>
+      <c r="B72" t="s">
+        <v>122</v>
+      </c>
+      <c r="C72" t="s">
+        <v>123</v>
+      </c>
+      <c r="D72">
+        <v>26</v>
+      </c>
+      <c r="E72" t="s">
+        <v>124</v>
+      </c>
+      <c r="F72" t="s">
+        <v>121</v>
+      </c>
+      <c r="G72" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>121</v>
+      </c>
+      <c r="B73" t="s">
+        <v>122</v>
+      </c>
+      <c r="C73" t="s">
+        <v>123</v>
+      </c>
+      <c r="D73">
+        <v>27</v>
+      </c>
+      <c r="E73" t="s">
+        <v>124</v>
+      </c>
+      <c r="F73" t="s">
+        <v>121</v>
+      </c>
+      <c r="G73" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>121</v>
+      </c>
+      <c r="B74" t="s">
+        <v>122</v>
+      </c>
+      <c r="C74" t="s">
+        <v>123</v>
+      </c>
+      <c r="D74">
+        <v>28</v>
+      </c>
+      <c r="E74" t="s">
+        <v>124</v>
+      </c>
+      <c r="F74" t="s">
+        <v>121</v>
+      </c>
+      <c r="G74" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>121</v>
+      </c>
+      <c r="B75" t="s">
+        <v>122</v>
+      </c>
+      <c r="C75" t="s">
+        <v>123</v>
+      </c>
+      <c r="D75">
+        <v>29</v>
+      </c>
+      <c r="E75" t="s">
+        <v>124</v>
+      </c>
+      <c r="F75" t="s">
+        <v>121</v>
+      </c>
+      <c r="G75" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>121</v>
+      </c>
+      <c r="B76" t="s">
+        <v>122</v>
+      </c>
+      <c r="C76" t="s">
+        <v>123</v>
+      </c>
+      <c r="D76">
+        <v>30</v>
+      </c>
+      <c r="E76" t="s">
+        <v>124</v>
+      </c>
+      <c r="F76" t="s">
+        <v>121</v>
+      </c>
+      <c r="G76" t="s">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="I1:I2"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="P2" r:id="rId1" xr:uid="{258B1B79-355B-704A-8338-F69908B97E3D}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB36284-073C-1341-A8C8-2525ED037192}">
-  <dimension ref="A1:D30"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9BFCECA-E6AF-7342-B46A-3D2000DDBC81}">
+  <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D30"/>
+      <selection activeCell="G42" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.1640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="30.5" customWidth="1"/>
-    <col min="3" max="4" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="J1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" t="s">
+        <v>93</v>
+      </c>
+      <c r="P1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="R1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="T1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U1" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W1" t="s">
+        <v>93</v>
+      </c>
+      <c r="X1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="18"/>
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="J2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="L2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" s="18"/>
+      <c r="N2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" t="s">
+        <v>94</v>
+      </c>
+      <c r="P2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="R2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="T2" t="s">
+        <v>42</v>
+      </c>
+      <c r="U2" s="18"/>
+      <c r="V2" t="s">
+        <v>42</v>
+      </c>
+      <c r="W2" t="s">
+        <v>94</v>
+      </c>
+      <c r="X2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3">
+        <v>120</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="H3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3">
+        <v>11</v>
+      </c>
+      <c r="J3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="L3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3">
+        <v>100</v>
+      </c>
+      <c r="N3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0.85714000000000001</v>
+      </c>
+      <c r="P3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3">
+        <v>21</v>
+      </c>
+      <c r="R3" t="s">
+        <v>88</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="T3" t="s">
+        <v>42</v>
+      </c>
+      <c r="U3">
+        <v>768</v>
+      </c>
+      <c r="V3" t="s">
+        <v>42</v>
+      </c>
+      <c r="W3" s="5">
+        <v>0.64371999999999996</v>
+      </c>
+      <c r="X3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4">
+        <v>120</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.92532999999999999</v>
+      </c>
+      <c r="H4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4">
+        <v>12</v>
+      </c>
+      <c r="J4" t="s">
+        <v>88</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="L4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4">
+        <v>214</v>
+      </c>
+      <c r="N4" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0.43875999999999998</v>
+      </c>
+      <c r="P4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4">
+        <v>22</v>
+      </c>
+      <c r="R4" t="s">
+        <v>88</v>
+      </c>
+      <c r="S4" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="T4" t="s">
+        <v>42</v>
+      </c>
+      <c r="U4">
+        <v>106</v>
+      </c>
+      <c r="V4" t="s">
+        <v>42</v>
+      </c>
+      <c r="W4" s="5">
+        <v>0.90151999999999999</v>
+      </c>
+      <c r="X4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5">
+        <v>625</v>
+      </c>
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.67090000000000005</v>
+      </c>
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5">
+        <v>13</v>
+      </c>
+      <c r="J5" t="s">
+        <v>88</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="L5" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5">
+        <v>306</v>
+      </c>
+      <c r="N5" t="s">
+        <v>42</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0.78817000000000004</v>
+      </c>
+      <c r="P5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q5">
+        <v>23</v>
+      </c>
+      <c r="R5" t="s">
+        <v>88</v>
+      </c>
+      <c r="S5" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="T5" t="s">
+        <v>42</v>
+      </c>
+      <c r="U5">
+        <v>92</v>
+      </c>
+      <c r="V5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W5" s="5">
+        <v>0.50926000000000005</v>
+      </c>
+      <c r="X5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6">
+        <v>748</v>
+      </c>
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.74666999999999994</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6">
+        <v>14</v>
+      </c>
+      <c r="J6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="L6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M6">
+        <v>132</v>
+      </c>
+      <c r="N6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0.34166999999999997</v>
+      </c>
+      <c r="P6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q6">
+        <v>24</v>
+      </c>
+      <c r="R6" t="s">
+        <v>88</v>
+      </c>
+      <c r="S6" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="T6" t="s">
+        <v>42</v>
+      </c>
+      <c r="U6">
+        <v>102</v>
+      </c>
+      <c r="V6" t="s">
+        <v>42</v>
+      </c>
+      <c r="W6" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="X6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7">
+        <v>286</v>
+      </c>
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0.72414000000000001</v>
+      </c>
+      <c r="H7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7">
+        <v>15</v>
+      </c>
+      <c r="J7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="L7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7">
+        <v>583</v>
+      </c>
+      <c r="N7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0.68376000000000003</v>
+      </c>
+      <c r="P7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q7">
+        <v>25</v>
+      </c>
+      <c r="R7" t="s">
+        <v>88</v>
+      </c>
+      <c r="S7" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="T7" t="s">
+        <v>42</v>
+      </c>
+      <c r="U7">
+        <v>105</v>
+      </c>
+      <c r="V7" t="s">
+        <v>42</v>
+      </c>
+      <c r="W7" s="5">
+        <v>0.66515000000000002</v>
+      </c>
+      <c r="X7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8">
+        <v>699</v>
+      </c>
+      <c r="F8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.95523999999999998</v>
+      </c>
+      <c r="H8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="L8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M8">
+        <v>150</v>
+      </c>
+      <c r="N8" t="s">
+        <v>42</v>
+      </c>
+      <c r="O8" s="5">
+        <v>0.70108000000000004</v>
+      </c>
+      <c r="P8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q8">
+        <v>26</v>
+      </c>
+      <c r="R8" t="s">
+        <v>88</v>
+      </c>
+      <c r="S8" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="T8" t="s">
+        <v>42</v>
+      </c>
+      <c r="U8">
+        <v>210</v>
+      </c>
+      <c r="V8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W8" s="5">
+        <v>0.45426</v>
+      </c>
+      <c r="X8" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9">
+        <v>106</v>
+      </c>
+      <c r="F9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.40909000000000001</v>
+      </c>
+      <c r="H9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9">
+        <v>17</v>
+      </c>
+      <c r="J9" t="s">
+        <v>88</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="L9" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9">
+        <v>961</v>
+      </c>
+      <c r="N9" t="s">
+        <v>42</v>
+      </c>
+      <c r="O9" s="5">
+        <v>0.72780999999999996</v>
+      </c>
+      <c r="P9" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q9">
+        <v>27</v>
+      </c>
+      <c r="R9" t="s">
+        <v>88</v>
+      </c>
+      <c r="S9" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="T9" t="s">
+        <v>42</v>
+      </c>
+      <c r="U9">
+        <v>151</v>
+      </c>
+      <c r="V9" t="s">
+        <v>42</v>
+      </c>
+      <c r="W9" s="5">
+        <v>0.39677000000000001</v>
+      </c>
+      <c r="X9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10">
+        <v>336</v>
+      </c>
+      <c r="F10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.59216000000000002</v>
+      </c>
+      <c r="H10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10">
+        <v>18</v>
+      </c>
+      <c r="J10" t="s">
+        <v>88</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L10" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10">
+        <v>124</v>
+      </c>
+      <c r="N10" t="s">
+        <v>42</v>
+      </c>
+      <c r="O10" s="5">
+        <v>0.59760000000000002</v>
+      </c>
+      <c r="P10" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q10">
+        <v>28</v>
+      </c>
+      <c r="R10" t="s">
+        <v>88</v>
+      </c>
+      <c r="S10" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="T10" t="s">
+        <v>42</v>
+      </c>
+      <c r="U10">
+        <v>958</v>
+      </c>
+      <c r="V10" t="s">
+        <v>42</v>
+      </c>
+      <c r="W10" s="5">
+        <v>0.63193999999999995</v>
+      </c>
+      <c r="X10" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11">
+        <v>768</v>
+      </c>
+      <c r="F11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.81623000000000001</v>
+      </c>
+      <c r="H11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11">
+        <v>19</v>
+      </c>
+      <c r="J11" t="s">
+        <v>88</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L11" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11">
+        <v>169</v>
+      </c>
+      <c r="N11" t="s">
+        <v>42</v>
+      </c>
+      <c r="O11" s="5">
+        <v>0.61667000000000005</v>
+      </c>
+      <c r="P11" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q11">
+        <v>29</v>
+      </c>
+      <c r="R11" t="s">
+        <v>88</v>
+      </c>
+      <c r="S11" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="T11" t="s">
+        <v>42</v>
+      </c>
+      <c r="U11">
+        <v>310</v>
+      </c>
+      <c r="V11" t="s">
+        <v>42</v>
+      </c>
+      <c r="W11" s="5">
+        <v>0.63492000000000004</v>
+      </c>
+      <c r="X11" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12">
+        <v>768</v>
+      </c>
+      <c r="F12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0.76126000000000005</v>
+      </c>
+      <c r="H12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12">
+        <v>20</v>
+      </c>
+      <c r="J12" t="s">
+        <v>88</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M12">
+        <v>122</v>
+      </c>
+      <c r="N12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O12" s="5">
+        <v>0.57606000000000002</v>
+      </c>
+      <c r="P12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q12">
+        <v>30</v>
+      </c>
+      <c r="R12" t="s">
+        <v>88</v>
+      </c>
+      <c r="S12" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="T12" t="s">
+        <v>42</v>
+      </c>
+      <c r="U12">
+        <v>310</v>
+      </c>
+      <c r="V12" t="s">
+        <v>42</v>
+      </c>
+      <c r="W12" s="5">
+        <v>0.58570999999999995</v>
+      </c>
+      <c r="X12" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A13" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="A13:W13"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="E1:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C82BF4EC-F496-BD46-85CA-BD5FCC92529F}">
+  <dimension ref="A1:R17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R20" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="J1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" t="s">
+        <v>93</v>
+      </c>
+      <c r="P1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="18"/>
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="J2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="L2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" s="18"/>
+      <c r="N2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" t="s">
+        <v>94</v>
+      </c>
+      <c r="P2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="R2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3">
+        <v>120</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="H3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="L3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3">
+        <v>150</v>
+      </c>
+      <c r="N3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0.70108000000000004</v>
+      </c>
+      <c r="P3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4">
+        <v>120</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.92532999999999999</v>
+      </c>
+      <c r="H4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" t="s">
+        <v>88</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="L4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4">
+        <v>961</v>
+      </c>
+      <c r="N4" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0.72780999999999996</v>
+      </c>
+      <c r="P4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>49</v>
+      </c>
+      <c r="R4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5">
+        <v>625</v>
+      </c>
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.67090000000000005</v>
+      </c>
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>88</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L5" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5">
+        <v>124</v>
+      </c>
+      <c r="N5" t="s">
+        <v>42</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0.59760000000000002</v>
+      </c>
+      <c r="P5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6">
+        <v>748</v>
+      </c>
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.74666999999999994</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M6">
+        <v>169</v>
+      </c>
+      <c r="N6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0.61667000000000005</v>
+      </c>
+      <c r="P6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>49</v>
+      </c>
+      <c r="R6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7">
+        <v>286</v>
+      </c>
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0.72414000000000001</v>
+      </c>
+      <c r="H7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7">
+        <v>122</v>
+      </c>
+      <c r="N7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0.57606000000000002</v>
+      </c>
+      <c r="P7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>49</v>
+      </c>
+      <c r="R7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8">
+        <v>699</v>
+      </c>
+      <c r="F8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.95523999999999998</v>
+      </c>
+      <c r="H8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="L8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M8">
+        <v>768</v>
+      </c>
+      <c r="N8" t="s">
+        <v>42</v>
+      </c>
+      <c r="O8" s="5">
+        <v>0.64371999999999996</v>
+      </c>
+      <c r="P8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>49</v>
+      </c>
+      <c r="R8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9">
+        <v>106</v>
+      </c>
+      <c r="F9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.40909000000000001</v>
+      </c>
+      <c r="H9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" t="s">
+        <v>74</v>
+      </c>
+      <c r="J9" t="s">
+        <v>88</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="L9" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9">
+        <v>106</v>
+      </c>
+      <c r="N9" t="s">
+        <v>42</v>
+      </c>
+      <c r="O9" s="5">
+        <v>0.90151999999999999</v>
+      </c>
+      <c r="P9" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>49</v>
+      </c>
+      <c r="R9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10">
+        <v>336</v>
+      </c>
+      <c r="F10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.59216000000000002</v>
+      </c>
+      <c r="H10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" t="s">
+        <v>88</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="L10" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10">
+        <v>92</v>
+      </c>
+      <c r="N10" t="s">
+        <v>42</v>
+      </c>
+      <c r="O10" s="5">
+        <v>0.50926000000000005</v>
+      </c>
+      <c r="P10" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>49</v>
+      </c>
+      <c r="R10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11">
+        <v>768</v>
+      </c>
+      <c r="F11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.81623000000000001</v>
+      </c>
+      <c r="H11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" t="s">
+        <v>76</v>
+      </c>
+      <c r="J11" t="s">
+        <v>88</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="L11" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11">
+        <v>102</v>
+      </c>
+      <c r="N11" t="s">
+        <v>42</v>
+      </c>
+      <c r="O11" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="P11" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>49</v>
+      </c>
+      <c r="R11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12">
+        <v>768</v>
+      </c>
+      <c r="F12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0.76126000000000005</v>
+      </c>
+      <c r="H12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" t="s">
+        <v>77</v>
+      </c>
+      <c r="J12" t="s">
+        <v>88</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M12">
+        <v>105</v>
+      </c>
+      <c r="N12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O12" s="5">
+        <v>0.66515000000000002</v>
+      </c>
+      <c r="P12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>49</v>
+      </c>
+      <c r="R12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13">
+        <v>100</v>
+      </c>
+      <c r="F13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0.85714000000000001</v>
+      </c>
+      <c r="H13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" t="s">
+        <v>78</v>
+      </c>
+      <c r="J13" t="s">
+        <v>88</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="L13" t="s">
+        <v>42</v>
+      </c>
+      <c r="M13">
+        <v>210</v>
+      </c>
+      <c r="N13" t="s">
+        <v>42</v>
+      </c>
+      <c r="O13" s="5">
+        <v>0.45426</v>
+      </c>
+      <c r="P13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>49</v>
+      </c>
+      <c r="R13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14">
+        <v>214</v>
+      </c>
+      <c r="F14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0.43875999999999998</v>
+      </c>
+      <c r="H14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" t="s">
+        <v>79</v>
+      </c>
+      <c r="J14" t="s">
+        <v>88</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="L14" t="s">
+        <v>42</v>
+      </c>
+      <c r="M14">
+        <v>151</v>
+      </c>
+      <c r="N14" t="s">
+        <v>42</v>
+      </c>
+      <c r="O14" s="5">
+        <v>0.39677000000000001</v>
+      </c>
+      <c r="P14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>49</v>
+      </c>
+      <c r="R14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15">
+        <v>306</v>
+      </c>
+      <c r="F15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0.78817000000000004</v>
+      </c>
+      <c r="H15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" t="s">
+        <v>80</v>
+      </c>
+      <c r="J15" t="s">
+        <v>88</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="L15" t="s">
+        <v>42</v>
+      </c>
+      <c r="M15">
+        <v>958</v>
+      </c>
+      <c r="N15" t="s">
+        <v>42</v>
+      </c>
+      <c r="O15" s="5">
+        <v>0.63193999999999995</v>
+      </c>
+      <c r="P15" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>49</v>
+      </c>
+      <c r="R15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16">
+        <v>132</v>
+      </c>
+      <c r="F16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0.34166999999999997</v>
+      </c>
+      <c r="H16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" t="s">
+        <v>81</v>
+      </c>
+      <c r="J16" t="s">
+        <v>88</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L16" t="s">
+        <v>42</v>
+      </c>
+      <c r="M16">
+        <v>310</v>
+      </c>
+      <c r="N16" t="s">
+        <v>42</v>
+      </c>
+      <c r="O16" s="5">
+        <v>0.63492000000000004</v>
+      </c>
+      <c r="P16" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>49</v>
+      </c>
+      <c r="R16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17">
+        <v>583</v>
+      </c>
+      <c r="F17" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0.68376000000000003</v>
+      </c>
+      <c r="H17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" t="s">
+        <v>82</v>
+      </c>
+      <c r="J17" t="s">
+        <v>88</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="L17" t="s">
+        <v>42</v>
+      </c>
+      <c r="M17">
+        <v>310</v>
+      </c>
+      <c r="N17" t="s">
+        <v>42</v>
+      </c>
+      <c r="O17" s="5">
+        <v>0.58570999999999995</v>
+      </c>
+      <c r="P17" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>49</v>
+      </c>
+      <c r="R17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="M1:M2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68FFF4FD-E733-5B45-9D94-E48118E724AB}">
+  <dimension ref="A1:I32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="18"/>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="18"/>
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3">
+        <v>120</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="H3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4">
+        <v>120</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.92532999999999999</v>
+      </c>
+      <c r="H4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5">
+        <v>625</v>
+      </c>
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.67090000000000005</v>
+      </c>
+      <c r="H5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6">
+        <v>748</v>
+      </c>
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.74666999999999994</v>
+      </c>
+      <c r="H6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7">
+        <v>286</v>
+      </c>
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0.72414000000000001</v>
+      </c>
+      <c r="H7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8">
+        <v>699</v>
+      </c>
+      <c r="F8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.95523999999999998</v>
+      </c>
+      <c r="H8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9">
+        <v>106</v>
+      </c>
+      <c r="F9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.40909000000000001</v>
+      </c>
+      <c r="H9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10">
+        <v>336</v>
+      </c>
+      <c r="F10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.59216000000000002</v>
+      </c>
+      <c r="H10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11">
+        <v>768</v>
+      </c>
+      <c r="F11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.81623000000000001</v>
+      </c>
+      <c r="H11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12">
+        <v>768</v>
+      </c>
+      <c r="F12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0.76126000000000005</v>
+      </c>
+      <c r="H12" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13">
+        <v>100</v>
+      </c>
+      <c r="F13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0.85714000000000001</v>
+      </c>
+      <c r="H13" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14">
+        <v>214</v>
+      </c>
+      <c r="F14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0.43875999999999998</v>
+      </c>
+      <c r="H14" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15">
+        <v>306</v>
+      </c>
+      <c r="F15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0.78817000000000004</v>
+      </c>
+      <c r="H15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16">
+        <v>132</v>
+      </c>
+      <c r="F16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0.34166999999999997</v>
+      </c>
+      <c r="H16" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17">
+        <v>583</v>
+      </c>
+      <c r="F17" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0.68376000000000003</v>
+      </c>
+      <c r="H17" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18">
+        <v>150</v>
+      </c>
+      <c r="F18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0.70108000000000004</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19">
+        <v>961</v>
+      </c>
+      <c r="F19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0.72780999999999996</v>
+      </c>
+      <c r="H19" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20">
+        <v>124</v>
+      </c>
+      <c r="F20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0.59760000000000002</v>
+      </c>
+      <c r="H20" t="s">
+        <v>49</v>
+      </c>
+      <c r="I20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21">
+        <v>169</v>
+      </c>
+      <c r="F21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0.61667000000000005</v>
+      </c>
+      <c r="H21" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22">
+        <v>122</v>
+      </c>
+      <c r="F22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0.57606000000000002</v>
+      </c>
+      <c r="H22" t="s">
+        <v>49</v>
+      </c>
+      <c r="I22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23">
+        <v>768</v>
+      </c>
+      <c r="F23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0.64371999999999996</v>
+      </c>
+      <c r="H23" t="s">
+        <v>49</v>
+      </c>
+      <c r="I23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24">
+        <v>106</v>
+      </c>
+      <c r="F24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0.90151999999999999</v>
+      </c>
+      <c r="H24" t="s">
+        <v>49</v>
+      </c>
+      <c r="I24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25">
+        <v>92</v>
+      </c>
+      <c r="F25" t="s">
+        <v>42</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0.50926000000000005</v>
+      </c>
+      <c r="H25" t="s">
+        <v>49</v>
+      </c>
+      <c r="I25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26">
+        <v>102</v>
+      </c>
+      <c r="F26" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="H26" t="s">
+        <v>49</v>
+      </c>
+      <c r="I26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27">
+        <v>105</v>
+      </c>
+      <c r="F27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G27" s="5">
+        <v>0.66515000000000002</v>
+      </c>
+      <c r="H27" t="s">
+        <v>49</v>
+      </c>
+      <c r="I27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28">
+        <v>210</v>
+      </c>
+      <c r="F28" t="s">
+        <v>42</v>
+      </c>
+      <c r="G28" s="5">
+        <v>0.45426</v>
+      </c>
+      <c r="H28" t="s">
+        <v>49</v>
+      </c>
+      <c r="I28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29">
+        <v>151</v>
+      </c>
+      <c r="F29" t="s">
+        <v>42</v>
+      </c>
+      <c r="G29" s="5">
+        <v>0.39677000000000001</v>
+      </c>
+      <c r="H29" t="s">
+        <v>49</v>
+      </c>
+      <c r="I29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30">
+        <v>958</v>
+      </c>
+      <c r="F30" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0.63193999999999995</v>
+      </c>
+      <c r="H30" t="s">
+        <v>49</v>
+      </c>
+      <c r="I30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31">
+        <v>310</v>
+      </c>
+      <c r="F31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G31" s="5">
+        <v>0.63492000000000004</v>
+      </c>
+      <c r="H31" t="s">
+        <v>49</v>
+      </c>
+      <c r="I31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32">
+        <v>310</v>
+      </c>
+      <c r="F32" t="s">
+        <v>42</v>
+      </c>
+      <c r="G32" s="5">
+        <v>0.58570999999999995</v>
+      </c>
+      <c r="H32" t="s">
+        <v>49</v>
+      </c>
+      <c r="I32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6912C204-9286-0840-9313-D2F11388384F}">
+  <dimension ref="A1:T19"/>
+  <sheetViews>
+    <sheetView zoomScale="50" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="46.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.1640625" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.1640625" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" t="s">
+        <v>95</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="T1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="G2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2">
+        <v>100</v>
+      </c>
+      <c r="I2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2">
+        <v>95</v>
+      </c>
+      <c r="K2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2">
+        <v>90</v>
+      </c>
+      <c r="M2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2">
+        <v>85</v>
+      </c>
+      <c r="O2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2">
+        <v>80</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R2">
+        <v>75</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="T2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3">
+        <v>2.7</v>
+      </c>
+      <c r="I3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3">
+        <v>0.4</v>
+      </c>
+      <c r="M3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3">
+        <v>0.2</v>
+      </c>
+      <c r="O3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3">
+        <v>0.1</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>42</v>
+      </c>
+      <c r="R3">
         <v>0</v>
       </c>
-      <c r="C1" s="5">
-        <v>0.90400000000000003</v>
-      </c>
-      <c r="D1" s="6">
-        <v>0.38133</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="S3" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="T3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="13">
+        <v>0.61428571428571432</v>
+      </c>
+      <c r="I4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="13">
+        <v>0.84285714285714286</v>
+      </c>
+      <c r="K4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="13">
+        <v>0.94285714285714284</v>
+      </c>
+      <c r="M4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="13">
+        <v>0.97142857142857142</v>
+      </c>
+      <c r="O4" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4" s="13">
+        <v>0.98571428571428577</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>42</v>
+      </c>
+      <c r="R4" s="13">
         <v>1</v>
       </c>
-      <c r="C2" s="5">
-        <v>0.92532999999999999</v>
-      </c>
-      <c r="D2" s="6">
-        <v>0.85467000000000004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0.67090000000000005</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0.18889</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0.74666999999999994</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0.74443999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0.72414000000000001</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0.72011000000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0.95523999999999998</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0.73856999999999995</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0.40909000000000001</v>
-      </c>
-      <c r="D7" s="6">
-        <v>0.18182000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="S4" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="T4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" t="s">
+        <v>99</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9">
         <v>7</v>
       </c>
-      <c r="C8" s="5">
-        <v>0.59216000000000002</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0.44069000000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="5">
-        <v>0.81623000000000001</v>
-      </c>
-      <c r="D9" s="6">
-        <v>0.54783999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="5">
-        <v>0.76126000000000005</v>
-      </c>
-      <c r="D10" s="6">
-        <v>0.58442000000000005</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0.85714000000000001</v>
-      </c>
-      <c r="D11" s="6">
-        <v>0.81269999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="5">
-        <v>0.43875999999999998</v>
-      </c>
-      <c r="D12" s="6">
-        <v>0.28682000000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="5">
-        <v>0.78817000000000004</v>
-      </c>
-      <c r="D13" s="6">
-        <v>0.78332999999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="5">
-        <v>0.34166999999999997</v>
-      </c>
-      <c r="D14" s="6">
-        <v>0.35104000000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="13">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10">
+        <v>2.7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0.61428571428571432</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11" s="18"/>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11">
+        <v>95</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="13">
+        <v>0.84285714285714286</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" s="18"/>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12">
+        <v>90</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12">
+        <v>0.4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="13">
+        <v>0.94285714285714284</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13" s="18"/>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13">
+        <v>85</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13">
+        <v>0.2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="13">
+        <v>0.97142857142857142</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14" s="18"/>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14">
+        <v>80</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14">
+        <v>0.1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="13">
+        <v>0.98571428571428577</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="5">
-        <v>0.68376000000000003</v>
-      </c>
-      <c r="D15" s="6">
-        <v>0.68347999999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="5">
-        <v>0.70108000000000004</v>
-      </c>
-      <c r="D16" s="6">
-        <v>0.41182999999999997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="5">
-        <v>0.72780999999999996</v>
-      </c>
-      <c r="D17" s="6">
-        <v>0.58980999999999995</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="5">
-        <v>0.59760000000000002</v>
-      </c>
-      <c r="D18" s="6">
-        <v>0.43844</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="5">
-        <v>0.61667000000000005</v>
-      </c>
-      <c r="D19" s="6">
-        <v>0.52917000000000003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>72</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="5">
-        <v>0.57606000000000002</v>
-      </c>
-      <c r="D20" s="6">
-        <v>0.50151999999999997</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>73</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="5">
-        <v>0.64371999999999996</v>
-      </c>
-      <c r="D21" s="6">
-        <v>0.62468000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>74</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="5">
-        <v>0.90151999999999999</v>
-      </c>
-      <c r="D22" s="6">
-        <v>0.18636</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15">
         <v>75</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="5">
-        <v>0.50926000000000005</v>
-      </c>
-      <c r="D23" s="6">
-        <v>0.35926000000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>76</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="D24" s="6">
-        <v>0.54166999999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>77</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="5">
-        <v>0.66515000000000002</v>
-      </c>
-      <c r="D25" s="6">
-        <v>0.20302999999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>78</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="5">
-        <v>0.45426</v>
-      </c>
-      <c r="D26" s="6">
-        <v>0.26512000000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>79</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="5">
-        <v>0.39677000000000001</v>
-      </c>
-      <c r="D27" s="6">
-        <v>0.34731000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>80</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="5">
-        <v>0.63193999999999995</v>
-      </c>
-      <c r="D28" s="6">
-        <v>0.35781000000000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>81</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="5">
-        <v>0.63492000000000004</v>
-      </c>
-      <c r="D29" s="6">
-        <v>0.46507999999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>82</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="5">
-        <v>0.58570999999999995</v>
-      </c>
-      <c r="D30" s="6">
-        <v>0.18465999999999999</v>
-      </c>
+      <c r="D15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="13">
+        <v>1</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="H1:P1"/>
+    <mergeCell ref="A10:A14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>